--- a/internal data/final wild strain map.xlsx
+++ b/internal data/final wild strain map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bencekover/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcbtkov_ucl_ac_uk/Documents/MSci Bahler lab/S.-Pombe-biofilm/internal data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D502D3AE-C310-F24F-8007-AEE9D09006A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D502D3AE-C310-F24F-8007-AEE9D09006A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44545BF0-3AF6-8147-9868-665FF71A4FDB}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17240" xr2:uid="{9970AC76-FBAB-9041-908A-11D22A08AD4B}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L8"/>
+      <selection activeCell="A8" sqref="A8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,13 +631,13 @@
         <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>58</v>
@@ -894,13 +894,13 @@
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>58</v>

--- a/internal data/final wild strain map.xlsx
+++ b/internal data/final wild strain map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcbtkov_ucl_ac_uk/Documents/MSci Bahler lab/S.-Pombe-biofilm/internal data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91277b806043e344/MSci Bahler lab/S.-Pombe-MLPs - Github/internal data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D502D3AE-C310-F24F-8007-AEE9D09006A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44545BF0-3AF6-8147-9868-665FF71A4FDB}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D502D3AE-C310-F24F-8007-AEE9D09006A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{015A0CCE-E662-1A48-AE2F-5CAA9CF73915}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17240" xr2:uid="{9970AC76-FBAB-9041-908A-11D22A08AD4B}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:K8"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,10 +649,10 @@
         <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -690,7 +690,7 @@
         <v>55</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -728,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -766,7 +766,7 @@
         <v>17</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -804,7 +804,7 @@
         <v>27</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -842,7 +842,7 @@
         <v>38</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -880,7 +880,7 @@
         <v>59</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -912,13 +912,13 @@
         <v>58</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
